--- a/location_count.xlsx
+++ b/location_count.xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>place count</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>터닝포인트짐 PT 스튜디오 예술회관역점</t>
+          <t>터닝포인트짐&amp;필라테스 가좌점</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -494,7 +494,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ulsan, South Korea</t>
+          <t>터닝포인트짐 PT 스튜디오 예술회관역점</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -514,7 +514,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>터닝포인트짐&amp;필라테스 가좌점</t>
+          <t>Ulsan, South Korea</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -544,7 +544,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -564,7 +564,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -574,7 +574,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>에빠누이</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>쎈네일</t>
+          <t>Jeju</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -594,7 +594,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Gangneung</t>
+          <t>경기도 양평군</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -604,7 +604,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>경기도 양평군</t>
+          <t>쎈네일</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -614,7 +614,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Dongdaemun District</t>
+          <t>Gwangju, South Korea</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -624,7 +624,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>에빠누이</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -634,7 +634,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Yongin</t>
+          <t>Dongdaemun District</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -644,7 +644,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gwangju, South Korea</t>
+          <t>Objectapartment</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -654,7 +654,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Bucheon</t>
+          <t>위뷰티압구정점</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -684,7 +684,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>서귀포 매일올레시장</t>
+          <t>Yongin</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -694,7 +694,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>위뷰티압구정점</t>
+          <t>Gangneung</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,7 +704,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Jeju</t>
+          <t>서귀포 매일올레시장</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -714,7 +714,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Objectapartment</t>
+          <t>단골 627</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -724,7 +724,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>Bucheon</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -734,7 +734,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>단골 627</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -744,7 +744,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>일산 호수마을</t>
+          <t>노블리즈뷰티아카데미충장점</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -754,7 +754,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>아티움미술</t>
+          <t>용산역 근처</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -764,7 +764,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Seocho-dong</t>
+          <t>저스트텐동</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -774,7 +774,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>거제시</t>
+          <t>마산 문화동</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -784,7 +784,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>송파 테라타워</t>
+          <t>양평</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>부산 남포동</t>
+          <t>수성구립 범어도서관</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -814,7 +814,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>트리플에이짐</t>
+          <t>Bar Wolf</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -824,7 +824,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>대치동우리집</t>
+          <t>러스틱컴포트</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -834,7 +834,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Apsan - Mountain, Daegu City</t>
+          <t>느티나무 펜션</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -844,7 +844,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>법무법인한중 국제법무팀 Law Firm Hanjoong IBT- Lēx</t>
+          <t>죽전동</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -854,7 +854,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>가수원동</t>
+          <t>덕평자연휴게소</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -864,7 +864,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>방이먹자골목</t>
+          <t>건대 스타시티 준오헤어</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -874,7 +874,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>우미노히</t>
+          <t>Suwon</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -884,7 +884,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>불타는 금요일</t>
+          <t>Dongducheon</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -894,7 +894,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>칠백집</t>
+          <t>논현동가구거리</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -904,7 +904,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>병점 더파크</t>
+          <t>동탄2신도시</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -914,7 +914,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Gwangju</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -924,7 +924,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Yeoju</t>
+          <t>추사 김정희 유배지, 제주도</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -934,7 +934,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>전주화산체육관</t>
+          <t>마이크로피에스</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -944,7 +944,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>규태네 양곱창</t>
+          <t>거제시</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -954,7 +954,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>강남역 스타벅스</t>
+          <t>법무법인한중 국제법무팀 Law Firm Hanjoong IBT- Lēx</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -964,7 +964,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>외도동</t>
+          <t>Roppongi</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -974,7 +974,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>대전 봉명동</t>
+          <t>가수원동</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -984,7 +984,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Daegu, South Korea</t>
+          <t>해운대 중동역 근처</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -994,7 +994,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>승희헤어갤러리</t>
+          <t>북서울 꿈의숲</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1004,7 +1004,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>스시진수</t>
+          <t>이태원</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1014,7 +1014,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>저스트텐동</t>
+          <t>강남역 스타벅스</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1024,7 +1024,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>남양주 오남리 어딘가</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1034,7 +1034,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>우리짐 상수점</t>
+          <t>신림동</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1044,7 +1044,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>해운대 중동역 근처</t>
+          <t>Yeoju</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1054,7 +1054,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>한국 최고 유흥과 열정의 거리 상남동</t>
+          <t>앞산 전망대</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1064,7 +1064,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>신림동</t>
+          <t>스시진수</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1074,7 +1074,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Yeongdeungpo District</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1084,7 +1084,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>MBC</t>
+          <t>Mapo, Seoul, Korea</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1094,7 +1094,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>논현동가구거리</t>
+          <t>우리짐 상수점</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1104,7 +1104,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>부산 광안리해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
+          <t>제주청년농부</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1114,7 +1114,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>우리집~♥</t>
+          <t>남양주 오남리 어딘가</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1124,7 +1124,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>청라 커널웨이</t>
+          <t>포항 현진에버빌 evervill</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1134,7 +1134,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Lesportsac 신세계파주아울렛점</t>
+          <t>어딘가</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1144,7 +1144,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Baisoo</t>
+          <t>우미노히</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1154,7 +1154,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>용산역 근처</t>
+          <t>Cheonan, Korea</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1164,7 +1164,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Suwon</t>
+          <t>Dalian, China</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1174,7 +1174,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Jeonju, Korea</t>
+          <t>대치동우리집</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1184,7 +1184,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>동탄고등학교</t>
+          <t>Paju</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1194,7 +1194,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>구덕운동장</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1204,7 +1204,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>제주청년농부</t>
+          <t>청라 커널웨이</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1214,7 +1214,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Ulsan, Korea</t>
+          <t>Gwangju</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1224,7 +1224,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>아티움미술</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1234,7 +1234,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>김포시 구래동</t>
+          <t>Lesportsac 신세계파주아울렛점</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1244,7 +1244,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>방구석</t>
+          <t>칠백집</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1254,7 +1254,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>열두달제주흑돼지</t>
+          <t>전주화산체육관</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1264,7 +1264,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>스포애니 암사점</t>
+          <t>Seoul, South Korea - 서울</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1274,7 +1274,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>경기도 고양시 덕양구 삼송동</t>
+          <t>김포시 구래동</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1284,7 +1284,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>박승철당산역점</t>
+          <t>Jeonju, Korea</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1294,7 +1294,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>단대호수</t>
+          <t>Suncheon, Cholla-Namdo, Korea</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1304,7 +1304,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>플라잉스토리</t>
+          <t>홍콩반점0410</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1314,7 +1314,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>구덕운동장</t>
+          <t>전라남도 화순</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1324,7 +1324,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>분당</t>
+          <t>Osteria Orzo</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1334,7 +1334,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Songdo International Business District</t>
+          <t>Forlab 포랩 선수트레이닝센터</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1344,7 +1344,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>수성구립 범어도서관</t>
+          <t>동탄고등학교</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1354,7 +1354,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>랭스카페</t>
+          <t>Osan, Kyonggi-Do, Korea</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1364,7 +1364,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>포항 현진에버빌 evervill</t>
+          <t>계룡산 동학사</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1374,7 +1374,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Crimson Resort &amp; Spa Boracay</t>
+          <t>집꾸석</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1384,7 +1384,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>제주도 서귀포 동홍동</t>
+          <t>Apsan - Mountain, Daegu City</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1394,7 +1394,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>니맘속</t>
+          <t>전주 혁신도시</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1404,7 +1404,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>삼성동코엑스</t>
+          <t>Yeongdeungpo District</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1414,7 +1414,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>이천 관고동</t>
+          <t>경기도  파주시 운정신도시</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1424,7 +1424,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>赤羽</t>
+          <t>랭스카페</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1434,7 +1434,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>마크헤어살롱금오점</t>
+          <t>니맘속</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1444,7 +1444,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Bar Wolf</t>
+          <t>브라운핸즈개항로-인천-</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1454,7 +1454,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>홍콩반점0410</t>
+          <t>한남동 프레쉬마켓</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1464,7 +1464,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Tarot &amp; Gallery, Cafe</t>
+          <t>졸업</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1474,7 +1474,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Osteria Orzo</t>
+          <t>방이먹자골목</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1484,7 +1484,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Tokyo, Japan</t>
+          <t>병점 더파크</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1494,7 +1494,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Dongducheon</t>
+          <t>Haeundae, Busan</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1504,7 +1504,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Tarot &amp; Gallery, Cafe</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1514,7 +1514,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>집꾸석</t>
+          <t>대구시수성구</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1524,7 +1524,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>전라남도 화순</t>
+          <t>Geoje</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1534,7 +1534,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>앞산 전망대</t>
+          <t>스포애니 암사점</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1544,7 +1544,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Forlab 포랩 선수트레이닝센터</t>
+          <t>Asan</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1554,7 +1554,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>전주 혁신도시</t>
+          <t>불타는 금요일</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1564,7 +1564,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>느티나무 펜션</t>
+          <t>관가</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1574,7 +1574,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>러스틱컴포트</t>
+          <t>템포러리스탑</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1584,7 +1584,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>슬기로운 집콕라이프</t>
+          <t>대구 - Daegu, South Korea</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1594,7 +1594,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>건대 스타시티 준오헤어</t>
+          <t>박승철헤어스투디오 남가좌점</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1604,7 +1604,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>덕평자연휴게소</t>
+          <t>Crimson Resort &amp; Spa Boracay</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1614,7 +1614,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Jeonju</t>
+          <t>집콕</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1624,7 +1624,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>명주배롱</t>
+          <t>Jeonju</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1634,7 +1634,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>죽전동</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1644,7 +1644,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>메가박스 송도</t>
+          <t>46번가</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1654,7 +1654,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>단골병원</t>
+          <t>마크헤어살롱금오점</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1664,7 +1664,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>우리집♥</t>
+          <t>상무지구어딘가</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1674,7 +1674,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>분당</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1684,7 +1684,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Roppongi</t>
+          <t>동성로 룩730 구-마리오</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1694,7 +1694,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>관가</t>
+          <t>메가박스 송도</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1704,7 +1704,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>나드헤어</t>
+          <t>Tokyo, Japan</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1714,7 +1714,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Dalian, China</t>
+          <t>제주도 서귀포 동홍동</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1724,7 +1724,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Paju</t>
+          <t>승희헤어갤러리</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1734,7 +1734,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>세원오투리움</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1744,7 +1744,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>노블리즈뷰티아카데미충장점</t>
+          <t>좋아해커피</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1754,7 +1754,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>집콕</t>
+          <t>한국 최고 유흥과 열정의 거리 상남동</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1764,7 +1764,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Geoje</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1774,7 +1774,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Osan, Kyonggi-Do, Korea</t>
+          <t>열두달제주흑돼지</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1784,7 +1784,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>46번가</t>
+          <t>경기도 김포시 마산동</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1794,7 +1794,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>후식당 後食糖</t>
+          <t>부산 광안리해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1804,7 +1804,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>경기도  파주시 운정신도시</t>
+          <t>을지로 베로나</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1814,7 +1814,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>부에노부스</t>
+          <t>단골병원</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1824,7 +1824,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>서울 중계동</t>
+          <t>규태네 양곱창</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1834,7 +1834,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>제이앤컬</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1844,7 +1844,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Haeundae, Busan</t>
+          <t>클라임 바운스</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1854,7 +1854,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>졸업</t>
+          <t>부에노부스</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1864,7 +1864,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>어딘가</t>
+          <t>Songdo International Business District</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1874,7 +1874,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>마이크로피에스</t>
+          <t>MBC</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1884,7 +1884,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>계룡산 동학사</t>
+          <t>이천 관고동</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1894,7 +1894,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Seoul, South Korea - 서울</t>
+          <t>명주배롱</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1904,7 +1904,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>대구 - Daegu, South Korea</t>
+          <t>Seocho-dong</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1914,7 +1914,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Mapo, Seoul, Korea</t>
+          <t>나드헤어</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1924,7 +1924,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>박승철헤어스투디오 남가좌점</t>
+          <t>우리집~♥</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1934,7 +1934,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>이태원</t>
+          <t>외도동</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1944,7 +1944,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>제이앤컬</t>
+          <t>Baisoo</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1954,7 +1954,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>구미 옥계동</t>
+          <t>Uljin</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1964,7 +1964,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Cheonan, Korea</t>
+          <t>경기도 고양시 덕양구 삼송동</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1974,7 +1974,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>템포러리스탑</t>
+          <t>서울 중계동</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1984,7 +1984,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>마산 문화동</t>
+          <t>생일 끝</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1994,7 +1994,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>징기스</t>
+          <t>샤로수길</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2004,7 +2004,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>퇴근 후 우리집</t>
+          <t>구미 옥계동</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2014,7 +2014,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>샤로수길</t>
+          <t>赤羽</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2024,7 +2024,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>삼성역</t>
+          <t>양지파인리조트스키장</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2034,7 +2034,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>을지로 베로나</t>
+          <t>일산 호수마을</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2044,7 +2044,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Seoul Korea</t>
+          <t>단대호수</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2054,7 +2054,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>좋아해커피</t>
+          <t>충남 내포신도시</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2064,7 +2064,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>추사 김정희 유배지, 제주도</t>
+          <t>대전 봉명동</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2074,7 +2074,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>브라운핸즈개항로-인천-</t>
+          <t>플라잉스토리</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2084,7 +2084,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>클라임 바운스</t>
+          <t>트리플에이짐</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2094,7 +2094,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>양평</t>
+          <t>슬기로운 집콕라이프</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2104,7 +2104,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>충남 내포신도시</t>
+          <t>Seoul Korea</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2114,7 +2114,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Suncheon, Cholla-Namdo, Korea</t>
+          <t>Ulsan, Korea</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2124,7 +2124,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>세원오투리움</t>
+          <t>방구석</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2134,7 +2134,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>양지파인리조트스키장</t>
+          <t>부산 남포동</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2144,7 +2144,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>경기도 김포시 마산동</t>
+          <t>삼성동코엑스</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2154,7 +2154,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>상무지구어딘가</t>
+          <t>삼성역</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2164,7 +2164,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>북서울 꿈의숲</t>
+          <t>퇴근 후 우리집</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2174,7 +2174,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>동성로 룩730 구-마리오</t>
+          <t>박승철당산역점</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2184,7 +2184,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Uljin</t>
+          <t>징기스</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2194,7 +2194,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>한남동 프레쉬마켓</t>
+          <t>후식당 後食糖</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2204,7 +2204,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>대구시수성구</t>
+          <t>Daegu, South Korea</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2214,7 +2214,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>생일 끝</t>
+          <t>송파 테라타워</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2224,7 +2224,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>동탄2신도시</t>
+          <t>우리집♥</t>
         </is>
       </c>
       <c r="B180" t="n">
